--- a/inputs/lokaleninfo.xlsx
+++ b/inputs/lokaleninfo.xlsx
@@ -54,30 +54,18 @@
     <t>0.01</t>
   </si>
   <si>
-    <t>gymastiek</t>
-  </si>
-  <si>
     <t>0.02</t>
   </si>
   <si>
-    <t>algemeen</t>
-  </si>
-  <si>
     <t>0.03</t>
   </si>
   <si>
-    <t>muziek</t>
-  </si>
-  <si>
     <t>0.04</t>
   </si>
   <si>
     <t>0.05</t>
   </si>
   <si>
-    <t>computer</t>
-  </si>
-  <si>
     <t>0.06</t>
   </si>
   <si>
@@ -96,9 +84,6 @@
     <t>0.10</t>
   </si>
   <si>
-    <t>biologie</t>
-  </si>
-  <si>
     <t>1.11</t>
   </si>
   <si>
@@ -120,19 +105,34 @@
     <t>faciliteiten</t>
   </si>
   <si>
-    <t>latijn|grieks|algemeen</t>
-  </si>
-  <si>
-    <t>geschiedenis|algemeen</t>
-  </si>
-  <si>
-    <t>wiskunde|algemeen</t>
-  </si>
-  <si>
-    <t>aardrijkskunde|algemeen</t>
-  </si>
-  <si>
-    <t>scheikunde|natuurkunde</t>
+    <t>LO</t>
+  </si>
+  <si>
+    <t>LA|GR|ALG</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>ALG</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>GS|ALG</t>
+  </si>
+  <si>
+    <t>WI|ALG</t>
+  </si>
+  <si>
+    <t>AK|ALG</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>NA|SK</t>
   </si>
 </sst>
 </file>
@@ -508,7 +508,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -533,10 +533,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -547,160 +547,160 @@
         <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>30</v>
       </c>
       <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
         <v>24</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -711,87 +711,87 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
